--- a/my_dataset/113_cause_recode.xlsx
+++ b/my_dataset/113_cause_recode.xlsx
@@ -429,10 +429,10 @@
     <t xml:space="preserve"> Other and unspecified events of undetermined intent and their sequelae (Y34, Y87.2, Y89.9)</t>
   </si>
   <si>
-    <t xml:space="preserve">ICD_CODE_113    </t>
-  </si>
-  <si>
-    <t>113 ICD-10 Recodes Table</t>
+    <t>113 Cause Recode</t>
+  </si>
+  <si>
+    <t>113_Desc</t>
   </si>
 </sst>
 </file>
@@ -810,7 +810,7 @@
   <dimension ref="A1:B458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
